--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45196</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44362</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44572</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>45126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>45833.67671296297</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>44288</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44539</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,14 +1397,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 6412-2024</t>
+          <t>A 31593-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45338</v>
+        <v>45833.70085648148</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1417,31 +1417,31 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1451,45 +1451,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 6412-2024 artfynd.xlsx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 31593-2025 artfynd.xlsx", "A 31593-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 6412-2024 karta.png", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 31593-2025 karta.png", "A 31593-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 6412-2024 FSC-klagomål.docx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 31593-2025 FSC-klagomål.docx", "A 31593-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 6412-2024 FSC-klagomål mail.docx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 31593-2025 FSC-klagomål mail.docx", "A 31593-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 6412-2024 tillsynsbegäran.docx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 31593-2025 tillsynsbegäran.docx", "A 31593-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 6412-2024 tillsynsbegäran mail.docx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 31593-2025 tillsynsbegäran mail.docx", "A 31593-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 54056-2022</t>
+          <t>A 48658-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44876</v>
+        <v>44859</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1501,13 +1501,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1545,41 +1540,41 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 54056-2022 artfynd.xlsx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 48658-2022 artfynd.xlsx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 54056-2022 karta.png", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 48658-2022 karta.png", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 54056-2022 FSC-klagomål.docx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 48658-2022 FSC-klagomål.docx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 54056-2022 FSC-klagomål mail.docx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 48658-2022 FSC-klagomål mail.docx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 54056-2022 tillsynsbegäran.docx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 48658-2022 tillsynsbegäran.docx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 54056-2022 tillsynsbegäran mail.docx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 48658-2022 tillsynsbegäran mail.docx", "A 48658-2022")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 30154-2022</t>
+          <t>A 54056-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44757</v>
+        <v>44876</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1591,8 +1586,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1626,45 +1626,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 30154-2022 artfynd.xlsx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 54056-2022 artfynd.xlsx", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 30154-2022 karta.png", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 54056-2022 karta.png", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 30154-2022 FSC-klagomål.docx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 54056-2022 FSC-klagomål.docx", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 30154-2022 FSC-klagomål mail.docx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 54056-2022 FSC-klagomål mail.docx", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 30154-2022 tillsynsbegäran.docx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 54056-2022 tillsynsbegäran.docx", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 30154-2022 tillsynsbegäran mail.docx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 54056-2022 tillsynsbegäran mail.docx", "A 54056-2022")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 48658-2022</t>
+          <t>A 30154-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44859</v>
+        <v>44757</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1711,45 +1711,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 48658-2022 artfynd.xlsx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 30154-2022 artfynd.xlsx", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 48658-2022 karta.png", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 30154-2022 karta.png", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 48658-2022 FSC-klagomål.docx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 30154-2022 FSC-klagomål.docx", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 48658-2022 FSC-klagomål mail.docx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 30154-2022 FSC-klagomål mail.docx", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 48658-2022 tillsynsbegäran.docx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 30154-2022 tillsynsbegäran.docx", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 48658-2022 tillsynsbegäran mail.docx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 30154-2022 tillsynsbegäran mail.docx", "A 30154-2022")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 31593-2025</t>
+          <t>A 6412-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45833.70085648148</v>
+        <v>45338</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1796,31 +1796,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 31593-2025 artfynd.xlsx", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 6412-2024 artfynd.xlsx", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 31593-2025 karta.png", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 6412-2024 karta.png", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 31593-2025 FSC-klagomål.docx", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 6412-2024 FSC-klagomål.docx", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 31593-2025 FSC-klagomål mail.docx", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 6412-2024 FSC-klagomål mail.docx", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 31593-2025 tillsynsbegäran.docx", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 6412-2024 tillsynsbegäran.docx", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 31593-2025 tillsynsbegäran mail.docx", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 6412-2024 tillsynsbegäran mail.docx", "A 6412-2024")</f>
         <v/>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
         <v>44453.86436342593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>44288</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44288</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44322</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44327</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44288</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44288</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44539.68760416667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44412.5749537037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44288</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44539.6910300926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44287</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44700</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44544</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>44582</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>44544</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2892,14 +2892,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 20053-2023</t>
+          <t>A 20373-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45054</v>
+        <v>45775.4216087963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2911,13 +2911,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2954,14 +2949,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 20373-2025</t>
+          <t>A 9966-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45775.4216087963</v>
+        <v>45363.65841435185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2974,7 +2969,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3011,14 +3006,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 33046-2022</t>
+          <t>A 32286-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44785</v>
+        <v>45120</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3031,7 +3026,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3075,7 +3070,7 @@
         <v>45120</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3125,14 +3120,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 46485-2025</t>
+          <t>A 36148-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45925.70648148148</v>
+        <v>45149</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3144,8 +3139,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3182,14 +3182,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 17623-2024</t>
+          <t>A 46485-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45417.83097222223</v>
+        <v>45925.70648148148</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>5.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3239,14 +3239,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 17624-2024</t>
+          <t>A 32230-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45417.84</v>
+        <v>45835.59810185185</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.2</v>
+        <v>7.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3296,14 +3296,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 33061-2024</t>
+          <t>A 33046-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45517.64091435185</v>
+        <v>44785</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3353,14 +3353,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 9966-2024</t>
+          <t>A 17086-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45363.65841435185</v>
+        <v>45754</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3372,8 +3372,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3410,14 +3415,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 45572-2021</t>
+          <t>A 33958-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44440</v>
+        <v>45124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3430,7 +3435,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3467,14 +3472,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 36148-2023</t>
+          <t>A 17624-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45149</v>
+        <v>45417.84</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3486,13 +3491,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3529,14 +3529,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 49568-2024</t>
+          <t>A 39082-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45596.49587962963</v>
+        <v>44412</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3586,14 +3586,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 32286-2023</t>
+          <t>A 49568-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45120</v>
+        <v>45596.49587962963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3643,14 +3643,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 9024-2021</t>
+          <t>A 28590-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44249.55199074074</v>
+        <v>45478.41633101852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6.8</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3700,14 +3700,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 17086-2025</t>
+          <t>A 2240-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45754</v>
+        <v>44938</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,13 +3719,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3762,14 +3757,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 14008-2021</t>
+          <t>A 20346-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44277</v>
+        <v>45775.38138888889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3781,13 +3776,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3824,14 +3814,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 20346-2025</t>
+          <t>A 9024-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45775.38138888889</v>
+        <v>44249.55199074074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3844,7 +3834,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3881,14 +3871,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 3827-2022</t>
+          <t>A 8756-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44587</v>
+        <v>44972</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3901,7 +3891,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3945,7 +3935,7 @@
         <v>45109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3995,14 +3985,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 39082-2021</t>
+          <t>A 17623-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44412</v>
+        <v>45417.83097222223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4015,7 +4005,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4052,14 +4042,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 8756-2023</t>
+          <t>A 33061-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44972</v>
+        <v>45517.64091435185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4072,7 +4062,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4109,14 +4099,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 28590-2024</t>
+          <t>A 20053-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45478.41633101852</v>
+        <v>45054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4128,8 +4118,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4166,14 +4161,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 33958-2023</t>
+          <t>A 45572-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45124</v>
+        <v>44440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4186,7 +4181,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4223,14 +4218,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 2240-2023</t>
+          <t>A 23720-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44938</v>
+        <v>45077.6678125</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4243,7 +4238,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4280,14 +4275,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 23720-2023</t>
+          <t>A 114-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45077.6678125</v>
+        <v>44918</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4337,14 +4332,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 114-2023</t>
+          <t>A 14008-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44918</v>
+        <v>44277</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4356,8 +4351,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4394,14 +4394,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 32230-2025</t>
+          <t>A 3827-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45835.59810185185</v>
+        <v>44587</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7.9</v>
+        <v>4.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45196</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44362</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44572</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>45126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>45833.67671296297</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>44288</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44539</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>45833.70085648148</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>44859</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>44876</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44757</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>45338</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44453.86436342593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>44288</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44288</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44322</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44327</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44288</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44288</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44539.68760416667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44412.5749537037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44288</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44539.6910300926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44287</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44700</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44544</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>44582</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>44544</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45775.4216087963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45363.65841435185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45120</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45120</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45149</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>45925.70648148148</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45835.59810185185</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44785</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45754</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45417.84</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44412</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45596.49587962963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>45478.41633101852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44938</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>45775.38138888889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44249.55199074074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44972</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>45109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>45417.83097222223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>45517.64091435185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>45054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>44440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45077.6678125</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44918</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44277</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44587</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45196</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44362</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44572</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>45126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>45833.67671296297</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>44288</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44539</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         <v>45833.70085648148</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>44859</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>44876</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44757</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>45338</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>44453.86436342593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>44288</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44288</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44322</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44327</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44288</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44288</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44539.68760416667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44412.5749537037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44288</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44539.6910300926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44287</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44700</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44544</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>44582</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>44544</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45775.4216087963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45363.65841435185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45120</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45120</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45149</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>45925.70648148148</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45835.59810185185</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44785</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45754</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45124</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45417.84</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44412</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45596.49587962963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>45478.41633101852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44938</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>45775.38138888889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44249.55199074074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44972</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>45109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>45417.83097222223</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>45517.64091435185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>45054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>44440</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45077.6678125</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44918</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44277</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44587</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z60"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45196</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44362</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44572</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,14 +1047,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 33166-2023</t>
+          <t>A 31577-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45126</v>
+        <v>45833.67671296297</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,16 +1067,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1100,121 +1100,121 @@
         <v>3</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Klofibbla
+Nästrot
+Sårläka</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 31577-2025 artfynd.xlsx", "A 31577-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 31577-2025 karta.png", "A 31577-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 31577-2025 FSC-klagomål.docx", "A 31577-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 31577-2025 FSC-klagomål mail.docx", "A 31577-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 31577-2025 tillsynsbegäran.docx", "A 31577-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 31577-2025 tillsynsbegäran mail.docx", "A 31577-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 33166-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45126</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>VÄRMDÖ</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Backklöver
 Gullklöver
 Vippärt</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 33166-2023 artfynd.xlsx", "A 33166-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 33166-2023 karta.png", "A 33166-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 33166-2023 FSC-klagomål.docx", "A 33166-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 33166-2023 FSC-klagomål mail.docx", "A 33166-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 33166-2023 tillsynsbegäran.docx", "A 33166-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 33166-2023 tillsynsbegäran mail.docx", "A 33166-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 31577-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45833.67671296297</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>VÄRMDÖ</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Klofibbla
-Nästrot
-Sårläka</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 31577-2025 artfynd.xlsx", "A 31577-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 31577-2025 karta.png", "A 31577-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 31577-2025 FSC-klagomål.docx", "A 31577-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 31577-2025 FSC-klagomål mail.docx", "A 31577-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 31577-2025 tillsynsbegäran.docx", "A 31577-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 31577-2025 tillsynsbegäran mail.docx", "A 31577-2025")</f>
         <v/>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
         <v>44288</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44539</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,14 +1397,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 31593-2025</t>
+          <t>A 6412-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45833.70085648148</v>
+        <v>45338</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1451,45 +1451,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 31593-2025 artfynd.xlsx", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 6412-2024 artfynd.xlsx", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 31593-2025 karta.png", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 6412-2024 karta.png", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 31593-2025 FSC-klagomål.docx", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 6412-2024 FSC-klagomål.docx", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 31593-2025 FSC-klagomål mail.docx", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 6412-2024 FSC-klagomål mail.docx", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 31593-2025 tillsynsbegäran.docx", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 6412-2024 tillsynsbegäran.docx", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 31593-2025 tillsynsbegäran mail.docx", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 6412-2024 tillsynsbegäran mail.docx", "A 6412-2024")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 48658-2022</t>
+          <t>A 54056-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44859</v>
+        <v>44876</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1501,8 +1501,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1540,41 +1545,41 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 48658-2022 artfynd.xlsx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 54056-2022 artfynd.xlsx", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 48658-2022 karta.png", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 54056-2022 karta.png", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 48658-2022 FSC-klagomål.docx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 54056-2022 FSC-klagomål.docx", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 48658-2022 FSC-klagomål mail.docx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 54056-2022 FSC-klagomål mail.docx", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 48658-2022 tillsynsbegäran.docx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 54056-2022 tillsynsbegäran.docx", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 48658-2022 tillsynsbegäran mail.docx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 54056-2022 tillsynsbegäran mail.docx", "A 54056-2022")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 54056-2022</t>
+          <t>A 31593-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44876</v>
+        <v>45833.70085648148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1584,11 +1589,6 @@
       <c r="E13" t="inlineStr">
         <is>
           <t>VÄRMDÖ</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1630,27 +1630,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 54056-2022 artfynd.xlsx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 31593-2025 artfynd.xlsx", "A 31593-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 54056-2022 karta.png", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 31593-2025 karta.png", "A 31593-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 54056-2022 FSC-klagomål.docx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 31593-2025 FSC-klagomål.docx", "A 31593-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 54056-2022 FSC-klagomål mail.docx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 31593-2025 FSC-klagomål mail.docx", "A 31593-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 54056-2022 tillsynsbegäran.docx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 31593-2025 tillsynsbegäran.docx", "A 31593-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 54056-2022 tillsynsbegäran mail.docx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 31593-2025 tillsynsbegäran mail.docx", "A 31593-2025")</f>
         <v/>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
         <v>44757</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1742,14 +1742,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 6412-2024</t>
+          <t>A 48658-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45338</v>
+        <v>44859</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1762,31 +1762,31 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1796,31 +1796,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 6412-2024 artfynd.xlsx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 48658-2022 artfynd.xlsx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 6412-2024 karta.png", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 48658-2022 karta.png", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 6412-2024 FSC-klagomål.docx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 48658-2022 FSC-klagomål.docx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 6412-2024 FSC-klagomål mail.docx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 48658-2022 FSC-klagomål mail.docx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 6412-2024 tillsynsbegäran.docx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 48658-2022 tillsynsbegäran.docx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 6412-2024 tillsynsbegäran mail.docx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 48658-2022 tillsynsbegäran mail.docx", "A 48658-2022")</f>
         <v/>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
         <v>44453.86436342593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>44288</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44288</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44322</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44327</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44288</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44288</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44539.68760416667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44412.5749537037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44288</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44539.6910300926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44287</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44700</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44544</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>44582</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>44544</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2892,14 +2892,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 20373-2025</t>
+          <t>A 33046-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45775.4216087963</v>
+        <v>44785</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2949,14 +2949,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 9966-2024</t>
+          <t>A 17623-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45363.65841435185</v>
+        <v>45417.83097222223</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3006,14 +3006,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 32286-2023</t>
+          <t>A 17624-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45120</v>
+        <v>45417.84</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3063,14 +3063,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 32458-2023</t>
+          <t>A 33061-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45120</v>
+        <v>45517.64091435185</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>12.5</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3120,14 +3120,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 36148-2023</t>
+          <t>A 45572-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45149</v>
+        <v>44440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,13 +3139,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3182,14 +3177,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 46485-2025</t>
+          <t>A 32230-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45925.70648148148</v>
+        <v>45835.59810185185</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3202,7 +3197,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.9</v>
+        <v>7.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3239,14 +3234,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 32230-2025</t>
+          <t>A 49568-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45835.59810185185</v>
+        <v>45596.49587962963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3259,7 +3254,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>7.9</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3296,14 +3291,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 33046-2022</t>
+          <t>A 17086-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44785</v>
+        <v>45754</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3315,8 +3310,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3353,14 +3353,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 17086-2025</t>
+          <t>A 46485-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45754</v>
+        <v>45925.70648148148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3372,13 +3372,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3415,14 +3410,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 33958-2023</t>
+          <t>A 14008-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45124</v>
+        <v>44277</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,8 +3429,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 17624-2024</t>
+          <t>A 20346-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45417.84</v>
+        <v>45775.38138888889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3529,14 +3529,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 39082-2021</t>
+          <t>A 20053-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44412</v>
+        <v>45054</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,8 +3548,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3586,14 +3591,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 49568-2024</t>
+          <t>A 20373-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45596.49587962963</v>
+        <v>45775.4216087963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3606,7 +3611,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3643,14 +3648,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 28590-2024</t>
+          <t>A 32458-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45478.41633101852</v>
+        <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3663,7 +3668,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>12.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3700,14 +3705,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 2240-2023</t>
+          <t>A 9966-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44938</v>
+        <v>45363.65841435185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3720,7 +3725,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3757,14 +3762,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 20346-2025</t>
+          <t>A 36148-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45775.38138888889</v>
+        <v>45149</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,8 +3781,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3814,14 +3824,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 9024-2021</t>
+          <t>A 32286-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44249.55199074074</v>
+        <v>45120</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3834,7 +3844,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>6.8</v>
+        <v>0.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3871,14 +3881,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 8756-2023</t>
+          <t>A 9024-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44972</v>
+        <v>44249.55199074074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3891,7 +3901,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>6.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3928,14 +3938,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 30002-2023</t>
+          <t>A 3827-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45109</v>
+        <v>44587</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3948,7 +3958,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3985,14 +3995,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 17623-2024</t>
+          <t>A 30002-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45417.83097222223</v>
+        <v>45109</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4005,7 +4015,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4042,14 +4052,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 33061-2024</t>
+          <t>A 6894-2026</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45517.64091435185</v>
+        <v>46057.47780092592</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4062,7 +4072,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4099,14 +4109,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 20053-2023</t>
+          <t>A 39082-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45054</v>
+        <v>44412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,13 +4128,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4161,14 +4166,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 45572-2021</t>
+          <t>A 8756-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44440</v>
+        <v>44972</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4181,7 +4186,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4218,14 +4223,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 23720-2023</t>
+          <t>A 28590-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45077.6678125</v>
+        <v>45478.41633101852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4238,7 +4243,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4275,14 +4280,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 114-2023</t>
+          <t>A 33958-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44918</v>
+        <v>45124</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4332,14 +4337,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 14008-2021</t>
+          <t>A 2240-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44277</v>
+        <v>44938</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4351,13 +4356,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4391,17 +4391,17 @@
       </c>
       <c r="R59" s="2" t="inlineStr"/>
     </row>
-    <row r="60">
+    <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 3827-2022</t>
+          <t>A 23720-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44587</v>
+        <v>45077.6678125</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4447,6 +4447,63 @@
         <v>0</v>
       </c>
       <c r="R60" s="2" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>A 114-2023</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>44918</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>VÄRMDÖ</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45196</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44362</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44572</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,14 +1047,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 31577-2025</t>
+          <t>A 33166-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45833.67671296297</v>
+        <v>45126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,16 +1067,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1100,121 +1100,121 @@
         <v>3</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Backklöver
+Gullklöver
+Vippärt</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 33166-2023 artfynd.xlsx", "A 33166-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 33166-2023 karta.png", "A 33166-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 33166-2023 FSC-klagomål.docx", "A 33166-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 33166-2023 FSC-klagomål mail.docx", "A 33166-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 33166-2023 tillsynsbegäran.docx", "A 33166-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 33166-2023 tillsynsbegäran mail.docx", "A 33166-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 31577-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45833.67671296297</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>VÄRMDÖ</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Klofibbla
 Nästrot
 Sårläka</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 31577-2025 artfynd.xlsx", "A 31577-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 31577-2025 karta.png", "A 31577-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 31577-2025 FSC-klagomål.docx", "A 31577-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 31577-2025 FSC-klagomål mail.docx", "A 31577-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 31577-2025 tillsynsbegäran.docx", "A 31577-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 31577-2025 tillsynsbegäran mail.docx", "A 31577-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 33166-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45126</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>VÄRMDÖ</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Backklöver
-Gullklöver
-Vippärt</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 33166-2023 artfynd.xlsx", "A 33166-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 33166-2023 karta.png", "A 33166-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 33166-2023 FSC-klagomål.docx", "A 33166-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 33166-2023 FSC-klagomål mail.docx", "A 33166-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 33166-2023 tillsynsbegäran.docx", "A 33166-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 33166-2023 tillsynsbegäran mail.docx", "A 33166-2023")</f>
         <v/>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
         <v>44288</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44539</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,14 +1397,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 6412-2024</t>
+          <t>A 30154-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45338</v>
+        <v>44757</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1417,31 +1417,31 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1451,45 +1451,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 6412-2024 artfynd.xlsx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 30154-2022 artfynd.xlsx", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 6412-2024 karta.png", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 30154-2022 karta.png", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 6412-2024 FSC-klagomål.docx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 30154-2022 FSC-klagomål.docx", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 6412-2024 FSC-klagomål mail.docx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 30154-2022 FSC-klagomål mail.docx", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 6412-2024 tillsynsbegäran.docx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 30154-2022 tillsynsbegäran.docx", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 6412-2024 tillsynsbegäran mail.docx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 30154-2022 tillsynsbegäran mail.docx", "A 30154-2022")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 54056-2022</t>
+          <t>A 6412-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44876</v>
+        <v>45338</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1501,22 +1501,17 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1531,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1541,31 +1536,31 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 54056-2022 artfynd.xlsx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 6412-2024 artfynd.xlsx", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 54056-2022 karta.png", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 6412-2024 karta.png", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 54056-2022 FSC-klagomål.docx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 6412-2024 FSC-klagomål.docx", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 54056-2022 FSC-klagomål mail.docx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 6412-2024 FSC-klagomål mail.docx", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 54056-2022 tillsynsbegäran.docx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 6412-2024 tillsynsbegäran.docx", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 54056-2022 tillsynsbegäran mail.docx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 6412-2024 tillsynsbegäran mail.docx", "A 6412-2024")</f>
         <v/>
       </c>
     </row>
@@ -1579,7 +1574,7 @@
         <v>45833.70085648148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,14 +1652,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 30154-2022</t>
+          <t>A 48658-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44757</v>
+        <v>44859</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1677,7 +1672,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1711,45 +1706,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 30154-2022 artfynd.xlsx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 48658-2022 artfynd.xlsx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 30154-2022 karta.png", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 48658-2022 karta.png", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 30154-2022 FSC-klagomål.docx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 48658-2022 FSC-klagomål.docx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 30154-2022 FSC-klagomål mail.docx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 48658-2022 FSC-klagomål mail.docx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 30154-2022 tillsynsbegäran.docx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 48658-2022 tillsynsbegäran.docx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 30154-2022 tillsynsbegäran mail.docx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 48658-2022 tillsynsbegäran mail.docx", "A 48658-2022")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 48658-2022</t>
+          <t>A 54056-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44859</v>
+        <v>44876</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1761,8 +1756,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1800,27 +1800,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 48658-2022 artfynd.xlsx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 54056-2022 artfynd.xlsx", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 48658-2022 karta.png", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 54056-2022 karta.png", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 48658-2022 FSC-klagomål.docx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 54056-2022 FSC-klagomål.docx", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 48658-2022 FSC-klagomål mail.docx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 54056-2022 FSC-klagomål mail.docx", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 48658-2022 tillsynsbegäran.docx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 54056-2022 tillsynsbegäran.docx", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 48658-2022 tillsynsbegäran mail.docx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 54056-2022 tillsynsbegäran mail.docx", "A 54056-2022")</f>
         <v/>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
         <v>44453.86436342593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>44288</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44288</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44322</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44327</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44288</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44288</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44539.68760416667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44412.5749537037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44288</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>44539.6910300926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44287</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44700</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>44544</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>44582</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>44544</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2892,14 +2892,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 33046-2022</t>
+          <t>A 114-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44785</v>
+        <v>44918</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2949,14 +2949,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 17623-2024</t>
+          <t>A 14008-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45417.83097222223</v>
+        <v>44277</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,8 +2968,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3006,14 +3011,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 17624-2024</t>
+          <t>A 20373-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45417.84</v>
+        <v>45775.4216087963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3026,7 +3031,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3063,14 +3068,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 33061-2024</t>
+          <t>A 3827-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45517.64091435185</v>
+        <v>44587</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3083,7 +3088,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3120,14 +3125,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 45572-2021</t>
+          <t>A 9966-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44440</v>
+        <v>45363.65841435185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3140,7 +3145,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3177,14 +3182,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 32230-2025</t>
+          <t>A 32286-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45835.59810185185</v>
+        <v>45120</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3197,7 +3202,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>7.9</v>
+        <v>0.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3234,14 +3239,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 49568-2024</t>
+          <t>A 46485-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45596.49587962963</v>
+        <v>45925.70648148148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3254,7 +3259,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>5.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3291,14 +3296,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 17086-2025</t>
+          <t>A 32458-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45754</v>
+        <v>45120</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3310,13 +3315,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>4.3</v>
+        <v>12.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3353,14 +3353,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 46485-2025</t>
+          <t>A 36148-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45925.70648148148</v>
+        <v>45149</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3372,8 +3372,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3410,14 +3415,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 14008-2021</t>
+          <t>A 32230-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44277</v>
+        <v>45835.59810185185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3429,13 +3434,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>2.5</v>
+        <v>7.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 20346-2025</t>
+          <t>A 33046-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45775.38138888889</v>
+        <v>44785</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3529,14 +3529,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 20053-2023</t>
+          <t>A 17086-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45054</v>
+        <v>45754</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3550,11 +3550,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3591,14 +3591,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 20373-2025</t>
+          <t>A 33958-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45775.4216087963</v>
+        <v>45124</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3648,14 +3648,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 32458-2023</t>
+          <t>A 17624-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45120</v>
+        <v>45417.84</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>12.5</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3705,14 +3705,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 9966-2024</t>
+          <t>A 39082-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45363.65841435185</v>
+        <v>44412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3762,14 +3762,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 36148-2023</t>
+          <t>A 49568-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45149</v>
+        <v>45596.49587962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3781,13 +3781,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3824,14 +3819,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 32286-2023</t>
+          <t>A 28590-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45120</v>
+        <v>45478.41633101852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3844,7 +3839,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3881,14 +3876,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 9024-2021</t>
+          <t>A 2240-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44249.55199074074</v>
+        <v>44938</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3901,7 +3896,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6.8</v>
+        <v>3.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3938,14 +3933,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 3827-2022</t>
+          <t>A 20346-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44587</v>
+        <v>45775.38138888889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3953,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3995,14 +3990,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 30002-2023</t>
+          <t>A 9024-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45109</v>
+        <v>44249.55199074074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4015,7 +4010,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4052,14 +4047,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 6894-2026</t>
+          <t>A 8756-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>46057.47780092592</v>
+        <v>44972</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4072,7 +4067,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4109,14 +4104,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 39082-2021</t>
+          <t>A 30002-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44412</v>
+        <v>45109</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4129,7 +4124,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4166,14 +4161,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 8756-2023</t>
+          <t>A 17623-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44972</v>
+        <v>45417.83097222223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4186,7 +4181,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4223,14 +4218,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 28590-2024</t>
+          <t>A 33061-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45478.41633101852</v>
+        <v>45517.64091435185</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4243,7 +4238,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4280,14 +4275,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 33958-2023</t>
+          <t>A 6894-2026</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45124</v>
+        <v>46057.47780092592</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4300,7 +4295,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4337,14 +4332,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 2240-2023</t>
+          <t>A 20053-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44938</v>
+        <v>45054</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4356,8 +4351,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4394,14 +4394,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 23720-2023</t>
+          <t>A 45572-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45077.6678125</v>
+        <v>44440</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4451,14 +4451,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 114-2023</t>
+          <t>A 23720-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44918</v>
+        <v>45077.6678125</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45196</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44362</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44572</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,14 +1047,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 33166-2023</t>
+          <t>A 31577-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45126</v>
+        <v>45833.67671296297</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,16 +1067,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1100,121 +1100,121 @@
         <v>3</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Klofibbla
+Nästrot
+Sårläka</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 31577-2025 artfynd.xlsx", "A 31577-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 31577-2025 karta.png", "A 31577-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 31577-2025 FSC-klagomål.docx", "A 31577-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 31577-2025 FSC-klagomål mail.docx", "A 31577-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 31577-2025 tillsynsbegäran.docx", "A 31577-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 31577-2025 tillsynsbegäran mail.docx", "A 31577-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 33166-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45126</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>VÄRMDÖ</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Backklöver
 Gullklöver
 Vippärt</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 33166-2023 artfynd.xlsx", "A 33166-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 33166-2023 karta.png", "A 33166-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 33166-2023 FSC-klagomål.docx", "A 33166-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 33166-2023 FSC-klagomål mail.docx", "A 33166-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 33166-2023 tillsynsbegäran.docx", "A 33166-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 33166-2023 tillsynsbegäran mail.docx", "A 33166-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 31577-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45833.67671296297</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>VÄRMDÖ</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Klofibbla
-Nästrot
-Sårläka</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 31577-2025 artfynd.xlsx", "A 31577-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 31577-2025 karta.png", "A 31577-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 31577-2025 FSC-klagomål.docx", "A 31577-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 31577-2025 FSC-klagomål mail.docx", "A 31577-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 31577-2025 tillsynsbegäran.docx", "A 31577-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 31577-2025 tillsynsbegäran mail.docx", "A 31577-2025")</f>
         <v/>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
         <v>44288</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44539</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,14 +1397,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 30154-2022</t>
+          <t>A 6412-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44757</v>
+        <v>45338</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1451,45 +1451,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 30154-2022 artfynd.xlsx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 6412-2024 artfynd.xlsx", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 30154-2022 karta.png", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 6412-2024 karta.png", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 30154-2022 FSC-klagomål.docx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 6412-2024 FSC-klagomål.docx", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 30154-2022 FSC-klagomål mail.docx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 6412-2024 FSC-klagomål mail.docx", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 30154-2022 tillsynsbegäran.docx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 6412-2024 tillsynsbegäran.docx", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 30154-2022 tillsynsbegäran mail.docx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 6412-2024 tillsynsbegäran mail.docx", "A 6412-2024")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 6412-2024</t>
+          <t>A 54056-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45338</v>
+        <v>44876</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1501,32 +1501,37 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1536,45 +1541,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 6412-2024 artfynd.xlsx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 54056-2022 artfynd.xlsx", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 6412-2024 karta.png", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 54056-2022 karta.png", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 6412-2024 FSC-klagomål.docx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 54056-2022 FSC-klagomål.docx", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 6412-2024 FSC-klagomål mail.docx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 54056-2022 FSC-klagomål mail.docx", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 6412-2024 tillsynsbegäran.docx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 54056-2022 tillsynsbegäran.docx", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 6412-2024 tillsynsbegäran mail.docx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 54056-2022 tillsynsbegäran mail.docx", "A 54056-2022")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 31593-2025</t>
+          <t>A 30154-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45833.70085648148</v>
+        <v>44757</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1592,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1621,45 +1626,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 31593-2025 artfynd.xlsx", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 30154-2022 artfynd.xlsx", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 31593-2025 karta.png", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 30154-2022 karta.png", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 31593-2025 FSC-klagomål.docx", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 30154-2022 FSC-klagomål.docx", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 31593-2025 FSC-klagomål mail.docx", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 30154-2022 FSC-klagomål mail.docx", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 31593-2025 tillsynsbegäran.docx", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 30154-2022 tillsynsbegäran.docx", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 31593-2025 tillsynsbegäran mail.docx", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 30154-2022 tillsynsbegäran mail.docx", "A 30154-2022")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 48658-2022</t>
+          <t>A 31593-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44859</v>
+        <v>45833.70085648148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1672,7 +1677,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1710,41 +1715,41 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 48658-2022 artfynd.xlsx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 31593-2025 artfynd.xlsx", "A 31593-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 48658-2022 karta.png", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 31593-2025 karta.png", "A 31593-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 48658-2022 FSC-klagomål.docx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 31593-2025 FSC-klagomål.docx", "A 31593-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 48658-2022 FSC-klagomål mail.docx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 31593-2025 FSC-klagomål mail.docx", "A 31593-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 48658-2022 tillsynsbegäran.docx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 31593-2025 tillsynsbegäran.docx", "A 31593-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 48658-2022 tillsynsbegäran mail.docx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 31593-2025 tillsynsbegäran mail.docx", "A 31593-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 54056-2022</t>
+          <t>A 48658-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44876</v>
+        <v>44859</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1756,13 +1761,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1800,27 +1800,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 54056-2022 artfynd.xlsx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 48658-2022 artfynd.xlsx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 54056-2022 karta.png", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 48658-2022 karta.png", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 54056-2022 FSC-klagomål.docx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 48658-2022 FSC-klagomål.docx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 54056-2022 FSC-klagomål mail.docx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 48658-2022 FSC-klagomål mail.docx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 54056-2022 tillsynsbegäran.docx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 48658-2022 tillsynsbegäran.docx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 54056-2022 tillsynsbegäran mail.docx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 48658-2022 tillsynsbegäran mail.docx", "A 48658-2022")</f>
         <v/>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
         <v>44453.86436342593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>44288</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44288</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44322</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44327</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44288</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44288</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2312,14 +2312,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 72108-2021</t>
+          <t>A 20641-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44544</v>
+        <v>44700</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2369,14 +2369,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 71317-2021</t>
+          <t>A 72108-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44539.68760416667</v>
+        <v>44544</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2388,13 +2388,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2431,14 +2426,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 39073-2021</t>
+          <t>A 3057-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44412.5749537037</v>
+        <v>44582</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2451,7 +2446,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2488,14 +2483,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 16085-2021</t>
+          <t>A 71317-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44288</v>
+        <v>44539.68760416667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,8 +2502,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2545,14 +2545,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 71318-2021</t>
+          <t>A 72097-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44539.6910300926</v>
+        <v>44544</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2564,13 +2564,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>9.1</v>
+        <v>4.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2607,14 +2602,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 15926-2021</t>
+          <t>A 16085-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2627,7 +2622,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2664,14 +2659,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 20641-2022</t>
+          <t>A 39073-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44700</v>
+        <v>44412.5749537037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2684,7 +2679,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2721,14 +2716,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 72097-2021</t>
+          <t>A 71318-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44544</v>
+        <v>44539.6910300926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2740,8 +2735,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>4.1</v>
+        <v>9.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2778,14 +2778,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 3057-2022</t>
+          <t>A 15926-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44582</v>
+        <v>44287</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>7.4</v>
+        <v>4.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>44544</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2892,14 +2892,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 114-2023</t>
+          <t>A 17623-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44918</v>
+        <v>45417.83097222223</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2949,14 +2949,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 14008-2021</t>
+          <t>A 17624-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44277</v>
+        <v>45417.84</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,13 +2968,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3011,14 +3006,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 20373-2025</t>
+          <t>A 33061-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45775.4216087963</v>
+        <v>45517.64091435185</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3031,7 +3026,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3068,14 +3063,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 3827-2022</t>
+          <t>A 32458-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44587</v>
+        <v>45120</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3088,7 +3083,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.1</v>
+        <v>12.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3125,14 +3120,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 9966-2024</t>
+          <t>A 33046-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45363.65841435185</v>
+        <v>44785</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3145,7 +3140,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3182,14 +3177,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 32286-2023</t>
+          <t>A 9966-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45120</v>
+        <v>45363.65841435185</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3202,7 +3197,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3239,14 +3234,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 46485-2025</t>
+          <t>A 36148-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45925.70648148148</v>
+        <v>45149</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3258,8 +3253,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3296,14 +3296,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 32458-2023</t>
+          <t>A 45572-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45120</v>
+        <v>44440</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>12.5</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3353,14 +3353,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 36148-2023</t>
+          <t>A 32286-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45149</v>
+        <v>45120</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3372,13 +3372,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>2.7</v>
+        <v>0.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3415,14 +3410,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 32230-2025</t>
+          <t>A 9024-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45835.59810185185</v>
+        <v>44249.55199074074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3435,7 +3430,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3472,14 +3467,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 33046-2022</t>
+          <t>A 32230-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44785</v>
+        <v>45835.59810185185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3492,7 +3487,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>7.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3529,14 +3524,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 17086-2025</t>
+          <t>A 8756-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45754</v>
+        <v>44972</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,13 +3543,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3591,14 +3581,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 33958-2023</t>
+          <t>A 3827-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45124</v>
+        <v>44587</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3611,7 +3601,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3648,14 +3638,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 17624-2024</t>
+          <t>A 28590-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45417.84</v>
+        <v>45478.41633101852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3668,7 +3658,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3705,14 +3695,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 39082-2021</t>
+          <t>A 49568-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44412</v>
+        <v>45596.49587962963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3725,7 +3715,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3762,14 +3752,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 49568-2024</t>
+          <t>A 33958-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45596.49587962963</v>
+        <v>45124</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3782,7 +3772,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3819,14 +3809,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 28590-2024</t>
+          <t>A 17086-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45478.41633101852</v>
+        <v>45754</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3838,8 +3828,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3876,14 +3871,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 2240-2023</t>
+          <t>A 30002-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44938</v>
+        <v>45109</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3896,7 +3891,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3933,14 +3928,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 20346-2025</t>
+          <t>A 14008-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45775.38138888889</v>
+        <v>44277</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3952,8 +3947,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3990,14 +3990,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 9024-2021</t>
+          <t>A 20346-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44249.55199074074</v>
+        <v>45775.38138888889</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6.8</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4047,14 +4047,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 8756-2023</t>
+          <t>A 20053-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44972</v>
+        <v>45054</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4066,8 +4066,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4104,14 +4109,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 30002-2023</t>
+          <t>A 20373-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45109</v>
+        <v>45775.4216087963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4124,7 +4129,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4161,14 +4166,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 17623-2024</t>
+          <t>A 39082-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45417.83097222223</v>
+        <v>44412</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4181,7 +4186,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4218,14 +4223,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 33061-2024</t>
+          <t>A 2240-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45517.64091435185</v>
+        <v>44938</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4238,7 +4243,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4275,14 +4280,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 6894-2026</t>
+          <t>A 23720-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>46057.47780092592</v>
+        <v>45077.6678125</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4295,7 +4300,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4332,14 +4337,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 20053-2023</t>
+          <t>A 114-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45054</v>
+        <v>44918</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4351,13 +4356,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4394,14 +4394,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 45572-2021</t>
+          <t>A 46485-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44440</v>
+        <v>45925.70648148148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>5.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4451,14 +4451,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 23720-2023</t>
+          <t>A 6894-2026</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45077.6678125</v>
+        <v>46057.47780092592</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45196</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44362</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44572</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>44859</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,14 +1047,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 31577-2025</t>
+          <t>A 33166-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45833.67671296297</v>
+        <v>45126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,16 +1067,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1100,121 +1100,121 @@
         <v>3</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Backklöver
+Gullklöver
+Vippärt</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 33166-2023 artfynd.xlsx", "A 33166-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 33166-2023 karta.png", "A 33166-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 33166-2023 FSC-klagomål.docx", "A 33166-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 33166-2023 FSC-klagomål mail.docx", "A 33166-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 33166-2023 tillsynsbegäran.docx", "A 33166-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 33166-2023 tillsynsbegäran mail.docx", "A 33166-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 31577-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45833.67671296297</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>VÄRMDÖ</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Klofibbla
 Nästrot
 Sårläka</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 31577-2025 artfynd.xlsx", "A 31577-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 31577-2025 karta.png", "A 31577-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 31577-2025 FSC-klagomål.docx", "A 31577-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 31577-2025 FSC-klagomål mail.docx", "A 31577-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 31577-2025 tillsynsbegäran.docx", "A 31577-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 31577-2025 tillsynsbegäran mail.docx", "A 31577-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 33166-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45126</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>VÄRMDÖ</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Backklöver
-Gullklöver
-Vippärt</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 33166-2023 artfynd.xlsx", "A 33166-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 33166-2023 karta.png", "A 33166-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 33166-2023 FSC-klagomål.docx", "A 33166-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 33166-2023 FSC-klagomål mail.docx", "A 33166-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 33166-2023 tillsynsbegäran.docx", "A 33166-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 33166-2023 tillsynsbegäran mail.docx", "A 33166-2023")</f>
         <v/>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
         <v>44288</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44539</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,14 +1397,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 6412-2024</t>
+          <t>A 31593-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45338</v>
+        <v>45833.70085648148</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1417,31 +1417,31 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1451,45 +1451,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 6412-2024 artfynd.xlsx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 31593-2025 artfynd.xlsx", "A 31593-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 6412-2024 karta.png", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 31593-2025 karta.png", "A 31593-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 6412-2024 FSC-klagomål.docx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 31593-2025 FSC-klagomål.docx", "A 31593-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 6412-2024 FSC-klagomål mail.docx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 31593-2025 FSC-klagomål mail.docx", "A 31593-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 6412-2024 tillsynsbegäran.docx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 31593-2025 tillsynsbegäran.docx", "A 31593-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 6412-2024 tillsynsbegäran mail.docx", "A 6412-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 31593-2025 tillsynsbegäran mail.docx", "A 31593-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 54056-2022</t>
+          <t>A 48658-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44876</v>
+        <v>44859</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1501,13 +1501,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1545,41 +1540,41 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 54056-2022 artfynd.xlsx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 48658-2022 artfynd.xlsx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 54056-2022 karta.png", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 48658-2022 karta.png", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 54056-2022 FSC-klagomål.docx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 48658-2022 FSC-klagomål.docx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 54056-2022 FSC-klagomål mail.docx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 48658-2022 FSC-klagomål mail.docx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 54056-2022 tillsynsbegäran.docx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 48658-2022 tillsynsbegäran.docx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 54056-2022 tillsynsbegäran mail.docx", "A 54056-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 48658-2022 tillsynsbegäran mail.docx", "A 48658-2022")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 30154-2022</t>
+          <t>A 54056-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44757</v>
+        <v>44876</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1591,8 +1586,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1626,45 +1626,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 30154-2022 artfynd.xlsx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 54056-2022 artfynd.xlsx", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 30154-2022 karta.png", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 54056-2022 karta.png", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 30154-2022 FSC-klagomål.docx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 54056-2022 FSC-klagomål.docx", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 30154-2022 FSC-klagomål mail.docx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 54056-2022 FSC-klagomål mail.docx", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 30154-2022 tillsynsbegäran.docx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 54056-2022 tillsynsbegäran.docx", "A 54056-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 30154-2022 tillsynsbegäran mail.docx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 54056-2022 tillsynsbegäran mail.docx", "A 54056-2022")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 31593-2025</t>
+          <t>A 30154-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45833.70085648148</v>
+        <v>44757</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1711,45 +1711,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 31593-2025 artfynd.xlsx", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 30154-2022 artfynd.xlsx", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 31593-2025 karta.png", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 30154-2022 karta.png", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 31593-2025 FSC-klagomål.docx", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 30154-2022 FSC-klagomål.docx", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 31593-2025 FSC-klagomål mail.docx", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 30154-2022 FSC-klagomål mail.docx", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 31593-2025 tillsynsbegäran.docx", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 30154-2022 tillsynsbegäran.docx", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 31593-2025 tillsynsbegäran mail.docx", "A 31593-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 30154-2022 tillsynsbegäran mail.docx", "A 30154-2022")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 48658-2022</t>
+          <t>A 6412-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44859</v>
+        <v>45338</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1796,31 +1796,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 48658-2022 artfynd.xlsx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/artfynd/A 6412-2024 artfynd.xlsx", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 48658-2022 karta.png", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/kartor/A 6412-2024 karta.png", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 48658-2022 FSC-klagomål.docx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomål/A 6412-2024 FSC-klagomål.docx", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 48658-2022 FSC-klagomål mail.docx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/klagomålsmail/A 6412-2024 FSC-klagomål mail.docx", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 48658-2022 tillsynsbegäran.docx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsyn/A 6412-2024 tillsynsbegäran.docx", "A 6412-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 48658-2022 tillsynsbegäran mail.docx", "A 48658-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0120/tillsynsmail/A 6412-2024 tillsynsbegäran mail.docx", "A 6412-2024")</f>
         <v/>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
         <v>44453.86436342593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>44288</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44288</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44322</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44327</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44288</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44288</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2312,14 +2312,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 20641-2022</t>
+          <t>A 72108-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44700</v>
+        <v>44544</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2369,14 +2369,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 72108-2021</t>
+          <t>A 71317-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44544</v>
+        <v>44539.68760416667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2388,8 +2388,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2426,14 +2431,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 3057-2022</t>
+          <t>A 39073-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44582</v>
+        <v>44412.5749537037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2446,7 +2451,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>7.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2483,14 +2488,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 71317-2021</t>
+          <t>A 16085-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44539.68760416667</v>
+        <v>44288</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2502,13 +2507,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2545,14 +2545,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 72097-2021</t>
+          <t>A 71318-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44544</v>
+        <v>44539.6910300926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2564,8 +2564,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>4.1</v>
+        <v>9.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2602,14 +2607,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 16085-2021</t>
+          <t>A 15926-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2622,7 +2627,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2659,14 +2664,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 39073-2021</t>
+          <t>A 20641-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44412.5749537037</v>
+        <v>44700</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2679,7 +2684,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>8.300000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2716,14 +2721,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 71318-2021</t>
+          <t>A 72097-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44539.6910300926</v>
+        <v>44544</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2735,13 +2740,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>9.1</v>
+        <v>4.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2778,14 +2778,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 15926-2021</t>
+          <t>A 3057-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44287</v>
+        <v>44582</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>44544</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2892,14 +2892,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 17623-2024</t>
+          <t>A 20373-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45417.83097222223</v>
+        <v>45775.4216087963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2949,14 +2949,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 17624-2024</t>
+          <t>A 9966-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45417.84</v>
+        <v>45363.65841435185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3006,14 +3006,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 33061-2024</t>
+          <t>A 32286-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45517.64091435185</v>
+        <v>45120</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3063,14 +3063,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 32458-2023</t>
+          <t>A 6894-2026</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45120</v>
+        <v>46057.47780092592</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>12.5</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3120,14 +3120,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 33046-2022</t>
+          <t>A 32458-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44785</v>
+        <v>45120</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3177,14 +3177,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 9966-2024</t>
+          <t>A 32230-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45363.65841435185</v>
+        <v>45835.59810185185</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6</v>
+        <v>7.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>45149</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3296,14 +3296,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 45572-2021</t>
+          <t>A 33046-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44440</v>
+        <v>44785</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3353,14 +3353,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 32286-2023</t>
+          <t>A 17086-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45120</v>
+        <v>45754</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3372,8 +3372,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>0.1</v>
+        <v>4.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3410,14 +3415,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 9024-2021</t>
+          <t>A 46485-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44249.55199074074</v>
+        <v>45925.70648148148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3430,7 +3435,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3467,14 +3472,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 32230-2025</t>
+          <t>A 33958-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45835.59810185185</v>
+        <v>45124</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3487,7 +3492,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>7.9</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3524,14 +3529,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 8756-2023</t>
+          <t>A 17624-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44972</v>
+        <v>45417.84</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3544,7 +3549,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3581,14 +3586,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 3827-2022</t>
+          <t>A 39082-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44587</v>
+        <v>44412</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3601,7 +3606,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3638,14 +3643,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 28590-2024</t>
+          <t>A 49568-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45478.41633101852</v>
+        <v>45596.49587962963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3658,7 +3663,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3695,14 +3700,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 49568-2024</t>
+          <t>A 28590-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45596.49587962963</v>
+        <v>45478.41633101852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3715,7 +3720,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3752,14 +3757,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 33958-2023</t>
+          <t>A 2240-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45124</v>
+        <v>44938</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3772,7 +3777,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3809,14 +3814,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 17086-2025</t>
+          <t>A 20346-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45754</v>
+        <v>45775.38138888889</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3828,13 +3833,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3871,14 +3871,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 30002-2023</t>
+          <t>A 9024-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45109</v>
+        <v>44249.55199074074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3928,14 +3928,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 14008-2021</t>
+          <t>A 8756-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44277</v>
+        <v>44972</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,13 +3947,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3990,14 +3985,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 20346-2025</t>
+          <t>A 30002-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45775.38138888889</v>
+        <v>45109</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4010,7 +4005,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4047,14 +4042,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 20053-2023</t>
+          <t>A 17623-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45054</v>
+        <v>45417.83097222223</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4066,13 +4061,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4109,14 +4099,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 20373-2025</t>
+          <t>A 33061-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45775.4216087963</v>
+        <v>45517.64091435185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4129,7 +4119,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4166,14 +4156,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39082-2021</t>
+          <t>A 20053-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44412</v>
+        <v>45054</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4185,8 +4175,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4223,14 +4218,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 2240-2023</t>
+          <t>A 45572-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44938</v>
+        <v>44440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4243,7 +4238,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4287,7 +4282,7 @@
         <v>45077.6678125</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4344,7 +4339,7 @@
         <v>44918</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4394,14 +4389,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 46485-2025</t>
+          <t>A 14008-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45925.70648148148</v>
+        <v>44277</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4413,8 +4408,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4451,14 +4451,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 6894-2026</t>
+          <t>A 3827-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>46057.47780092592</v>
+        <v>44587</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
